--- a/TEST_CASES/Test_Cases_Upload.xlsx
+++ b/TEST_CASES/Test_Cases_Upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LTI.INFVA07202\Desktop\Group 4\New folder\Deepanshu_Pant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftPAC\TEST_CASES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D9C5B0-4D4E-4935-AF45-59967238E8E1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03A70E1-95E1-48E5-AD77-452D439948F0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930" activeTab="1" xr2:uid="{A031167F-79B9-4007-9C17-3D5EC9E4E483}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1" xr2:uid="{A031167F-79B9-4007-9C17-3D5EC9E4E483}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +290,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -639,9 +668,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -652,24 +705,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,34 +725,162 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,40 +1226,40 @@
   <sheetData>
     <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -1143,20 +1306,20 @@
       </c>
     </row>
     <row r="5" spans="3:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="42" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="44" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="47" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="15">
@@ -1180,17 +1343,17 @@
       <c r="O5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="58"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="3:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="43"/>
+      <c r="H6" s="45"/>
       <c r="I6" s="18">
         <v>2</v>
       </c>
@@ -1212,17 +1375,17 @@
       <c r="O6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="59"/>
+      <c r="P6" s="36"/>
     </row>
     <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="43"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="19">
         <v>3</v>
       </c>
@@ -1244,17 +1407,17 @@
       <c r="O7" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="59"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="3:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="43"/>
+      <c r="H8" s="45"/>
       <c r="I8" s="19">
         <v>4</v>
       </c>
@@ -1276,15 +1439,15 @@
       <c r="O8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="59"/>
+      <c r="P8" s="36"/>
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="53"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="43"/>
+      <c r="H9" s="45"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="19"/>
@@ -1292,15 +1455,15 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="59"/>
+      <c r="P9" s="36"/>
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="53"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="43"/>
+      <c r="H10" s="45"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="19"/>
@@ -1308,15 +1471,15 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="59"/>
+      <c r="P10" s="36"/>
     </row>
     <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="54"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="44"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="27"/>
@@ -1324,23 +1487,23 @@
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
-      <c r="P11" s="60"/>
+      <c r="P11" s="37"/>
     </row>
     <row r="12" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="44" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="H12" s="47" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="14">
@@ -1364,17 +1527,17 @@
       <c r="O12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="58"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="3:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="53"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="43"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="19">
         <v>2</v>
       </c>
@@ -1396,17 +1559,17 @@
       <c r="O13" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="59"/>
+      <c r="P13" s="36"/>
     </row>
     <row r="14" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="53"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="43"/>
+      <c r="H14" s="45"/>
       <c r="I14" s="19">
         <v>3</v>
       </c>
@@ -1428,17 +1591,17 @@
       <c r="O14" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="59"/>
+      <c r="P14" s="36"/>
     </row>
     <row r="15" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="53"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="43"/>
+      <c r="H15" s="45"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="19"/>
@@ -1446,15 +1609,15 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="59"/>
+      <c r="P15" s="36"/>
     </row>
     <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="53"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="43"/>
+      <c r="H16" s="45"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="19"/>
@@ -1462,15 +1625,15 @@
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="59"/>
+      <c r="P16" s="36"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="43"/>
+      <c r="H17" s="45"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
       <c r="K17" s="19"/>
@@ -1478,15 +1641,15 @@
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="59"/>
+      <c r="P17" s="36"/>
     </row>
     <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="54"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="44"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="27"/>
@@ -1494,23 +1657,23 @@
       <c r="M18" s="8"/>
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
-      <c r="P18" s="60"/>
+      <c r="P18" s="37"/>
     </row>
     <row r="19" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="52" t="s">
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="52" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="44" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="H19" s="47" t="s">
         <v>22</v>
       </c>
       <c r="I19" s="14">
@@ -1534,17 +1697,17 @@
       <c r="O19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="58"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="3:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="53"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="43"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="43"/>
+      <c r="H20" s="45"/>
       <c r="I20" s="19">
         <v>2</v>
       </c>
@@ -1566,17 +1729,17 @@
       <c r="O20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="59"/>
+      <c r="P20" s="36"/>
     </row>
     <row r="21" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="53"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="43"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="43"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="7">
         <v>3</v>
       </c>
@@ -1598,17 +1761,17 @@
       <c r="O21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="59"/>
+      <c r="P21" s="36"/>
     </row>
     <row r="22" spans="3:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="43"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="43"/>
+      <c r="H22" s="45"/>
       <c r="I22" s="7">
         <v>4</v>
       </c>
@@ -1628,15 +1791,15 @@
       <c r="O22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="59"/>
+      <c r="P22" s="36"/>
     </row>
     <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="53"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="43"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="45"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="19"/>
@@ -1644,15 +1807,15 @@
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
-      <c r="P23" s="59"/>
+      <c r="P23" s="36"/>
     </row>
     <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="53"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="43"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="45"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="43"/>
+      <c r="H24" s="45"/>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="19"/>
@@ -1660,15 +1823,15 @@
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
-      <c r="P24" s="59"/>
+      <c r="P24" s="36"/>
     </row>
     <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="61"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="44"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="44"/>
+      <c r="H25" s="46"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="27"/>
@@ -1676,23 +1839,23 @@
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="60"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="52" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="44" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="H26" s="47" t="s">
         <v>22</v>
       </c>
       <c r="I26" s="14">
@@ -1716,17 +1879,17 @@
       <c r="O26" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="58"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="3:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="53"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="43"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="43"/>
+      <c r="H27" s="45"/>
       <c r="I27" s="19">
         <v>2</v>
       </c>
@@ -1748,17 +1911,17 @@
       <c r="O27" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="59"/>
+      <c r="P27" s="36"/>
     </row>
     <row r="28" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="53"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="43"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="45"/>
       <c r="I28" s="7">
         <v>3</v>
       </c>
@@ -1780,17 +1943,17 @@
       <c r="O28" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="59"/>
+      <c r="P28" s="36"/>
     </row>
     <row r="29" spans="3:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="53"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="43"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="45"/>
       <c r="I29" s="7">
         <v>4</v>
       </c>
@@ -1810,15 +1973,15 @@
       <c r="O29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="59"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="53"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="43"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="43"/>
+      <c r="H30" s="45"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="19"/>
@@ -1826,15 +1989,15 @@
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
-      <c r="P30" s="59"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="53"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="43"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="43"/>
+      <c r="H31" s="45"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="19"/>
@@ -1842,15 +2005,15 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="6"/>
-      <c r="P31" s="59"/>
+      <c r="P31" s="36"/>
     </row>
     <row r="32" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="61"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="44"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="44"/>
+      <c r="H32" s="46"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="27"/>
@@ -1858,22 +2021,10 @@
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
-      <c r="P32" s="60"/>
+      <c r="P32" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P26:P32"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="H26:H32"/>
     <mergeCell ref="F12:F18"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="C2:P2"/>
@@ -1888,6 +2039,18 @@
     <mergeCell ref="C12:C18"/>
     <mergeCell ref="D12:D18"/>
     <mergeCell ref="E12:E18"/>
+    <mergeCell ref="P26:P32"/>
+    <mergeCell ref="C19:C25"/>
+    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="E19:E25"/>
+    <mergeCell ref="F19:F25"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="P19:P25"/>
+    <mergeCell ref="C26:C32"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="E26:E32"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="H26:H32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" xr:uid="{CE1F1704-190D-4EC7-B1CE-34BBBB2FEEE5}"/>
@@ -1906,869 +2069,870 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693CFB2E-A439-4F30-BCA3-37BA75997612}">
-  <dimension ref="C1:P32"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E13" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="26.7109375" customWidth="1"/>
-    <col min="11" max="11" width="26.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="41.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="58" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="58" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="58" customWidth="1"/>
+    <col min="7" max="7" width="18" style="58" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="58" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="109" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" style="58" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="58" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="58" customWidth="1"/>
+    <col min="13" max="13" width="7.5703125" style="58" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" style="58" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="46" t="s">
+    <row r="1" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-    </row>
-    <row r="3" spans="3:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="49" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="51"/>
-    </row>
-    <row r="4" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="1" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61"/>
+    </row>
+    <row r="3" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B3" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="C3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D3" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="E3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="F3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="G3" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="H3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="I3" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="J3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="K3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="L3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="M3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="N3" s="66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="3:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="C5" s="52" t="s">
+    <row r="4" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="42" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="D4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="E4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="F4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="15">
+      <c r="G4" s="72">
         <v>1</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="H4" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="I4" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="J4" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="K4" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="L4" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="M4" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="58"/>
-    </row>
-    <row r="6" spans="3:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="C6" s="53"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="10" t="s">
+      <c r="N4" s="78"/>
+    </row>
+    <row r="5" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="79"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="40">
+      <c r="F5" s="81"/>
+      <c r="G5" s="83">
         <v>2</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="H5" s="82" t="s">
         <v>55</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="I5" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="J5" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="K5" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="L5" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="M5" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="59"/>
-    </row>
-    <row r="7" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="53"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="10" t="s">
+      <c r="N5" s="88"/>
+    </row>
+    <row r="6" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="79"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="37">
+      <c r="F6" s="81"/>
+      <c r="G6" s="89">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="H6" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="37">
+      <c r="I6" s="89">
         <v>120301</v>
       </c>
-      <c r="L7" s="40">
+      <c r="J6" s="83">
         <v>120301</v>
       </c>
-      <c r="M7" s="40">
+      <c r="K6" s="83">
         <v>120301</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="L6" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="M6" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="59"/>
-    </row>
-    <row r="8" spans="3:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="C8" s="53"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="11" t="s">
+      <c r="N6" s="88"/>
+    </row>
+    <row r="7" spans="1:14" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="79"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="37">
+      <c r="F7" s="81"/>
+      <c r="G7" s="89">
         <v>4</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="H7" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="I7" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="J7" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="K7" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="L7" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="M7" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="59"/>
-    </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C9" s="53"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="59"/>
-    </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C10" s="53"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="59"/>
-    </row>
-    <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="54"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="60"/>
-    </row>
-    <row r="12" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="52" t="s">
+      <c r="N7" s="88"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="88"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="88"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="100"/>
+    </row>
+    <row r="11" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="42" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="D11" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="E11" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="45" t="s">
+      <c r="F11" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="I12" s="36">
+      <c r="G11" s="101">
         <v>1</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="H11" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="I11" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="L12" s="41" t="s">
+      <c r="J11" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="41" t="s">
+      <c r="K11" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="L11" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="M11" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="58"/>
-    </row>
-    <row r="13" spans="3:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="53"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="10" t="s">
+      <c r="N11" s="78"/>
+    </row>
+    <row r="12" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="37">
+      <c r="F12" s="81"/>
+      <c r="G12" s="89">
         <v>2</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="H12" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="I12" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="J12" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="K12" s="105" t="s">
         <v>58</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="L12" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="M12" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P13" s="59"/>
-    </row>
-    <row r="14" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="53"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="10" t="s">
+      <c r="N12" s="88"/>
+    </row>
+    <row r="13" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="79"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="37">
+      <c r="F13" s="81"/>
+      <c r="G13" s="89">
         <v>3</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="H13" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="37">
+      <c r="I13" s="89">
         <v>120303</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="J13" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="35" t="s">
+      <c r="K13" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="L13" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="M13" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P14" s="59"/>
-    </row>
-    <row r="15" spans="3:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="53"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="10" t="s">
+      <c r="N13" s="88"/>
+    </row>
+    <row r="14" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="59"/>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="53"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="59"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="53"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="59"/>
-    </row>
-    <row r="18" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="54"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="60"/>
-    </row>
-    <row r="19" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="52" t="s">
+      <c r="F14" s="81"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="88"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="88"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="88"/>
+    </row>
+    <row r="17" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="95"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="100"/>
+    </row>
+    <row r="18" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="52" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="D18" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="E18" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="45" t="s">
+      <c r="F18" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="36">
+      <c r="G18" s="101">
         <v>1</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="H18" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="I18" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="J18" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="M19" s="28" t="s">
+      <c r="K18" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="L18" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="M18" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P19" s="58"/>
-    </row>
-    <row r="20" spans="3:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="53"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="10" t="s">
+      <c r="N18" s="78"/>
+    </row>
+    <row r="19" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="37">
+      <c r="F19" s="81"/>
+      <c r="G19" s="89">
         <v>2</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="H19" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="I19" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="31" t="s">
+      <c r="J19" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="M20" s="31" t="s">
+      <c r="K19" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="L19" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="M19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P20" s="59"/>
-    </row>
-    <row r="21" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="53"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="10" t="s">
+      <c r="N19" s="88"/>
+    </row>
+    <row r="20" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="35">
+      <c r="F20" s="81"/>
+      <c r="G20" s="106">
         <v>3</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="H20" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="37">
+      <c r="I20" s="89">
         <v>120301</v>
       </c>
-      <c r="L21" s="35">
+      <c r="J20" s="106">
         <v>120301</v>
       </c>
-      <c r="M21" s="35">
+      <c r="K20" s="106">
         <v>120301</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="L20" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="M20" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P21" s="59"/>
-    </row>
-    <row r="22" spans="3:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="C22" s="53"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="10" t="s">
+      <c r="N20" s="88"/>
+    </row>
+    <row r="21" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="35">
+      <c r="F21" s="81"/>
+      <c r="G21" s="106">
         <v>4</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="H21" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="37"/>
-      <c r="L22" s="31" t="s">
+      <c r="I21" s="89"/>
+      <c r="J21" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="31" t="s">
+      <c r="K21" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="L21" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="M21" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P22" s="59"/>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C23" s="53"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="59"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C24" s="53"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="59"/>
-    </row>
-    <row r="25" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="61"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="60"/>
-    </row>
-    <row r="26" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="52" t="s">
+      <c r="N21" s="88"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="79"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="88"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="79"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="88"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="108"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="98"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="100"/>
+    </row>
+    <row r="25" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="52" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="D25" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="E25" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="H26" s="45" t="s">
+      <c r="F25" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="I26" s="36">
+      <c r="G25" s="101">
         <v>1</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="H25" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="I25" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="L26" s="28" t="s">
+      <c r="J25" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="M26" s="28" t="s">
+      <c r="K25" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="L25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O26" s="13" t="s">
+      <c r="M25" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P26" s="58"/>
-    </row>
-    <row r="27" spans="3:16" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="53"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="10" t="s">
+      <c r="N25" s="78"/>
+    </row>
+    <row r="26" spans="1:14" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="37">
+      <c r="F26" s="81"/>
+      <c r="G26" s="89">
         <v>2</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="H26" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="I26" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="L27" s="31" t="s">
+      <c r="J26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="M27" s="31" t="s">
+      <c r="K26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="L26" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="M26" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P27" s="59"/>
-    </row>
-    <row r="28" spans="3:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="53"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="10" t="s">
+      <c r="N26" s="88"/>
+    </row>
+    <row r="27" spans="1:14" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="35">
+      <c r="F27" s="81"/>
+      <c r="G27" s="106">
         <v>3</v>
       </c>
-      <c r="J28" s="34" t="s">
+      <c r="H27" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="37">
+      <c r="I27" s="89">
         <v>120301</v>
       </c>
-      <c r="L28" s="35">
+      <c r="J27" s="106">
         <v>120301</v>
       </c>
-      <c r="M28" s="35">
+      <c r="K27" s="106">
         <v>120301</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="L27" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="13" t="s">
+      <c r="M27" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="59"/>
-    </row>
-    <row r="29" spans="3:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="C29" s="53"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="10" t="s">
+      <c r="N27" s="88"/>
+    </row>
+    <row r="28" spans="1:14" ht="63" x14ac:dyDescent="0.25">
+      <c r="A28" s="79"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="35">
+      <c r="F28" s="81"/>
+      <c r="G28" s="106">
         <v>4</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="H28" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="37"/>
-      <c r="L29" s="31" t="s">
+      <c r="I28" s="89"/>
+      <c r="J28" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="31" t="s">
+      <c r="K28" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="L28" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O29" s="13" t="s">
+      <c r="M28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="P29" s="59"/>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C30" s="53"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="59"/>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C31" s="53"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="59"/>
-    </row>
-    <row r="32" spans="3:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="61"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="60"/>
+      <c r="N28" s="88"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="88"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="90"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="88"/>
+    </row>
+    <row r="31" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="108"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="108"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="98"/>
+      <c r="L31" s="98"/>
+      <c r="M31" s="98"/>
+      <c r="N31" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="P12:P18"/>
-    <mergeCell ref="C2:P2"/>
-    <mergeCell ref="C3:P3"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="E5:E11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="H5:H11"/>
-    <mergeCell ref="P5:P11"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="D12:D18"/>
-    <mergeCell ref="E12:E18"/>
-    <mergeCell ref="F12:F18"/>
-    <mergeCell ref="H12:H18"/>
-    <mergeCell ref="P26:P32"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="D19:D25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="C26:C32"/>
-    <mergeCell ref="D26:D32"/>
-    <mergeCell ref="E26:E32"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="H26:H32"/>
+    <mergeCell ref="N25:N31"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="C18:C24"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="F18:F24"/>
+    <mergeCell ref="N18:N24"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="F25:F31"/>
+    <mergeCell ref="N11:N17"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="F4:F10"/>
+    <mergeCell ref="N4:N10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="C11:C17"/>
+    <mergeCell ref="D11:D17"/>
+    <mergeCell ref="F11:F17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" xr:uid="{4DDDA377-C5E2-4003-99F7-9322B1555A34}"/>
-    <hyperlink ref="K6" r:id="rId2" xr:uid="{21123A06-6ECC-4154-9BFC-38F78DCA989E}"/>
-    <hyperlink ref="K12" r:id="rId3" xr:uid="{1AFF61C5-CDFE-4F70-AFCF-D163F49FD558}"/>
-    <hyperlink ref="K19" r:id="rId4" xr:uid="{53F1E465-F85B-4D55-A685-530AA318B9D3}"/>
-    <hyperlink ref="K13" r:id="rId5" xr:uid="{532F9096-4B37-474C-9CA9-0F2DDA052023}"/>
-    <hyperlink ref="K20" r:id="rId6" xr:uid="{EDA2DAB5-8418-4575-B054-3290D097D439}"/>
-    <hyperlink ref="K26" r:id="rId7" xr:uid="{07617ED0-244E-42EE-9917-56E1B43A6E2B}"/>
-    <hyperlink ref="K27" r:id="rId8" xr:uid="{A56FC3B9-114B-4DEC-ABA1-7F25A1996A05}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{4DDDA377-C5E2-4003-99F7-9322B1555A34}"/>
+    <hyperlink ref="I5" r:id="rId2" xr:uid="{21123A06-6ECC-4154-9BFC-38F78DCA989E}"/>
+    <hyperlink ref="I11" r:id="rId3" xr:uid="{1AFF61C5-CDFE-4F70-AFCF-D163F49FD558}"/>
+    <hyperlink ref="I18" r:id="rId4" xr:uid="{53F1E465-F85B-4D55-A685-530AA318B9D3}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{532F9096-4B37-474C-9CA9-0F2DDA052023}"/>
+    <hyperlink ref="I19" r:id="rId6" xr:uid="{EDA2DAB5-8418-4575-B054-3290D097D439}"/>
+    <hyperlink ref="I25" r:id="rId7" xr:uid="{07617ED0-244E-42EE-9917-56E1B43A6E2B}"/>
+    <hyperlink ref="I26" r:id="rId8" xr:uid="{A56FC3B9-114B-4DEC-ABA1-7F25A1996A05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId9"/>
